--- a/Examen I/5. Clase 13 abril - Modelos de Control de Inventarios.xlsx
+++ b/Examen I/5. Clase 13 abril - Modelos de Control de Inventarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laguilar/Documents/GitHub/ucr/if-7200-i-2023/Examen I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83373A1-8442-8F4F-89D7-2D269C280C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0600D96-20E2-BC46-8010-BF65383E59E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-740" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,13 +927,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="125" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1848,7 +1854,7 @@
         <v>4.75</v>
       </c>
       <c r="C168" s="4">
-        <f t="shared" ref="C167:C168" si="4">SQRT((2*$B$172*$B$173)/($B$174*B168))</f>
+        <f t="shared" ref="C168" si="4">SQRT((2*$B$172*$B$173)/($B$174*B168))</f>
         <v>718.1848464596078</v>
       </c>
       <c r="D168">
